--- a/biology/Botanique/Knautia/Knautia.xlsx
+++ b/biology/Botanique/Knautia/Knautia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Knautia est un genre de plantes herbacées vivaces de la famille des Dipsacaceae selon la classification classique de Cronquist (1981)[1], de la famille des Caprifoliaceae selon la classification phylogénétique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Knautia est un genre de plantes herbacées vivaces de la famille des Dipsacaceae selon la classification classique de Cronquist (1981), de la famille des Caprifoliaceae selon la classification phylogénétique.
 Les espèces sont appelées « knauties » ou parfois, « scabieuses ».
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il en existe plus de 40 espèces[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il en existe plus de 40 espèces.
 Knautia arvensis (L.) Coult.- Knautie des champs ou Scabieuse des champs
 Knautia arvernensis (Briq.) Szabó. - Knautie d'Auvergne
 Knautia carinthiaca Ehrend.
